--- a/src/test/resources/excelTests/references.xlsx
+++ b/src/test/resources/excelTests/references.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UBU\_XDMS\src\test\resources\excelTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,12 +63,6 @@
     <t>PALLET PARAMETERS</t>
   </si>
   <si>
-    <t>Per Package</t>
-  </si>
-  <si>
-    <t>Per Handling Unit</t>
-  </si>
-  <si>
     <t>AGREEMENT</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>5500000000</t>
+  </si>
+  <si>
+    <t>PCS per PU</t>
+  </si>
+  <si>
+    <t>PU per HU</t>
   </si>
 </sst>
 </file>
@@ -452,36 +452,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,73 +847,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="11" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="11" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>17</v>
+      <c r="S1" s="17"/>
+      <c r="T1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>8</v>
@@ -931,207 +931,207 @@
         <v>2</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="18"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="9">
+        <v>50</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="9">
+        <v>100</v>
+      </c>
+      <c r="L3" s="9">
+        <v>15</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1200</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="9">
+        <v>800</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="Q3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="18">
-        <v>50</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="18">
-        <v>100</v>
-      </c>
-      <c r="L3" s="18">
-        <v>15</v>
-      </c>
-      <c r="M3" s="18">
-        <v>1200</v>
-      </c>
-      <c r="N3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="O3" s="18">
-        <v>800</v>
-      </c>
-      <c r="P3" s="18" t="s">
+      <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="U3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="E4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="G4" s="11">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="11">
+        <v>200</v>
+      </c>
+      <c r="L4" s="11">
+        <v>20</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1100</v>
+      </c>
+      <c r="N4" s="11">
+        <v>900</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="Q4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="20">
-        <v>25</v>
-      </c>
-      <c r="H4" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I4" s="20">
-        <v>2</v>
-      </c>
-      <c r="J4" s="20">
-        <v>1500</v>
-      </c>
-      <c r="K4" s="20">
-        <v>200</v>
-      </c>
-      <c r="L4" s="20">
-        <v>20</v>
-      </c>
-      <c r="M4" s="20">
-        <v>1100</v>
-      </c>
-      <c r="N4" s="20">
-        <v>900</v>
-      </c>
-      <c r="O4" s="20">
-        <v>1000</v>
-      </c>
-      <c r="P4" s="20" t="s">
+      <c r="R4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="S4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="T4" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="U4" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="G5" s="11">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1500</v>
+      </c>
+      <c r="K5" s="11">
+        <v>200</v>
+      </c>
+      <c r="L5" s="11">
+        <v>20</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1100</v>
+      </c>
+      <c r="N5" s="11">
+        <v>900</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="R5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="20">
-        <v>25</v>
-      </c>
-      <c r="H5" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I5" s="20">
-        <v>2</v>
-      </c>
-      <c r="J5" s="20">
-        <v>1500</v>
-      </c>
-      <c r="K5" s="20">
-        <v>200</v>
-      </c>
-      <c r="L5" s="20">
-        <v>20</v>
-      </c>
-      <c r="M5" s="20">
-        <v>1100</v>
-      </c>
-      <c r="N5" s="20">
-        <v>900</v>
-      </c>
-      <c r="O5" s="20">
-        <v>1000</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="19" t="s">
+      <c r="T5" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="U5" s="5" t="b">
         <v>1</v>
@@ -1140,11 +1140,6 @@
   </sheetData>
   <autoFilter ref="A2:U2"/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="J1:K1"/>
@@ -1155,6 +1150,11 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
